--- a/giấy tờ, quyển đồ án TN/phiếu-giao-nhiệm-vụ-Dương-Duy-Đông-20183497.xlsx
+++ b/giấy tờ, quyển đồ án TN/phiếu-giao-nhiệm-vụ-Dương-Duy-Đông-20183497.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongdong/tinhtoantienhoa/giấy tờ, quyển đồ án TN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongdong/tinhtoantienhoa/giấy tờ, quyển đồ án TN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11ECA2E8-713D-1841-A016-B59953DF6FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89FEC68-8291-C64C-85A3-879FC3C786E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{A863A58B-5EF7-F243-8D9F-2E3660EA1ABA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A863A58B-5EF7-F243-8D9F-2E3660EA1ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Lớp:</t>
   </si>
   <si>
-    <t>Khoa học máy tính 03 - K63</t>
-  </si>
-  <si>
     <t>Email:</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Đồ án được thực hiện tại:</t>
   </si>
   <si>
-    <t>Trường Công nghệ thông tin- Truyền thông (SoICT), Đại học Bách Khoa Hà nội</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thời gian làm ĐATN: </t>
   </si>
   <si>
@@ -109,9 +103,6 @@
   </si>
   <si>
     <t>1. Tên đề tài:</t>
-  </si>
-  <si>
-    <t>Các thuật toán tiến hoá đa mục tiêu giải bài toán đặt và định tuyến trong mạng ảo hoá</t>
   </si>
   <si>
     <t>2. Lĩnh vực đề tài:</t>
@@ -245,6 +236,15 @@
   </si>
   <si>
     <t>Giáo viên hướng dẫn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tối ưu sắp đặt chức năng và định tuyến mạng ảo hoá  theo tiến hoá đa mục tiêu </t>
+  </si>
+  <si>
+    <t>Khoa học máy tính 03-K63</t>
+  </si>
+  <si>
+    <t>Trường Công nghệ thông tin- Truyền thông (SoICT)</t>
   </si>
 </sst>
 </file>
@@ -352,66 +352,66 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B23A2D-2B8F-6E41-8F0A-7B8207BE79F5}">
   <dimension ref="A2:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -741,73 +741,73 @@
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -845,67 +845,67 @@
         <v>6</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="25">
         <v>20183497</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="I10" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="12">
+      <c r="I11" s="25">
         <v>727537</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -920,64 +920,64 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="C14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="18">
+        <v>20</v>
+      </c>
+      <c r="D15" s="19">
         <v>45017</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="18">
+        <v>21</v>
+      </c>
+      <c r="I15" s="19">
         <v>45139</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -991,352 +991,352 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="A17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="A26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="A30" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="A31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
+      <c r="A32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="47.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
+      <c r="A34" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
+      <c r="A36" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
     </row>
     <row r="37" spans="1:11" ht="34.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="A37" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:11" ht="6.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
+      <c r="A38" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
+      <c r="A40" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
     </row>
     <row r="41" spans="1:11" ht="36.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
+      <c r="A41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
     </row>
     <row r="42" spans="1:11" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
+      <c r="A42" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
+      <c r="A44" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I45" s="10">
         <v>1</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K45" s="10">
         <v>5</v>
@@ -1344,68 +1344,68 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
+      <c r="A47" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
+      <c r="A48" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
     </row>
     <row r="49" spans="1:11" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
+      <c r="A49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I50" s="10">
         <v>2</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K50" s="10">
         <v>6</v>
@@ -1413,66 +1413,66 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
+      <c r="A52" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
+      <c r="A53" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
     </row>
     <row r="54" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
+      <c r="A54" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I55" s="10">
         <v>7</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K55" s="10">
         <v>10</v>
@@ -1480,62 +1480,62 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
+      <c r="A57" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
     </row>
     <row r="59" spans="1:11" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I60" s="10">
         <v>11</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K60" s="10">
         <v>14</v>
@@ -1543,66 +1543,66 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
+      <c r="A62" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
+      <c r="A63" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
     </row>
     <row r="64" spans="1:11" ht="43.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
+      <c r="A64" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I65" s="10">
         <v>15</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K65" s="10">
         <v>17</v>
@@ -1610,107 +1610,107 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
+      <c r="A67" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
     </row>
     <row r="68" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
     </row>
     <row r="69" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="H72" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
+      <c r="H72" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H73" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
+      <c r="H73" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="H80" s="24" t="str">
+      <c r="H80" s="12" t="str">
         <f>C9</f>
         <v>Dương Duy Đông</v>
       </c>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="H83" s="27" t="s">
+      <c r="H83" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H84" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="H84" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
+      <c r="I84" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="H85" s="4"/>
@@ -1719,16 +1719,39 @@
       <c r="K85" s="4"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="H91" s="24" t="str">
+      <c r="H91" s="12" t="str">
         <f>C13</f>
         <v>PGS. Nguyễn Khanh Văn</v>
       </c>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="A40:K42"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A26:K28"/>
+    <mergeCell ref="A30:K32"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A36:K38"/>
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="A44:K44"/>
     <mergeCell ref="A47:K49"/>
@@ -1741,33 +1764,11 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="H84:K84"/>
-    <mergeCell ref="A40:K42"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A26:K28"/>
-    <mergeCell ref="A30:K32"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A36:K38"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="C13:K13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1" xr:uid="{6EDD8068-F3BC-B844-B297-46763DEB9144}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>